--- a/assets/Portfolio.xlsx
+++ b/assets/Portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>emissions[tCO2/year]</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -601,14 +606,17 @@
       <c r="S2" t="n">
         <v>4632582.4730515</v>
       </c>
+      <c r="T2" t="n">
+        <v>2.158623199515963</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bankers Healthcare Group</t>
+          <t>Park Place Technologies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -617,11 +625,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.05084</v>
+        <v>0.00959</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -631,70 +639,73 @@
         <v>30000000</v>
       </c>
       <c r="H3" t="n">
-        <v>2187</v>
+        <v>3258</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bankers Healthcare Group</t>
+          <t>Park Place Technologies</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>220.3 Million</t>
+          <t>218.4 Million</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>53.5373</v>
+        <v>149.3505</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>IT Management</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="O3" t="n">
-        <v>260</v>
+        <v>363</v>
       </c>
       <c r="P3" t="n">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Davie</t>
+          <t>Mayfield Heights</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>4632582.4730515</v>
+        <v>6713103.77826075</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.468871775399916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KLDiscovery</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.01073</v>
+        <v>0.05005</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -702,76 +713,75 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>115000000</v>
+        <v>30000000</v>
       </c>
       <c r="G4" t="n">
-        <v>115000000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3214</v>
+        <v>3711</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>KLDiscovery</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>296.3 Million</t>
+          <t>2.3 Billion</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>222.2068</v>
+        <v>97.2672</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>IT Management</t>
+          <t>Logistics &amp; Transportation</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1174</v>
+        <v>486</v>
       </c>
       <c r="O4" t="n">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="P4" t="n">
-        <v>2005</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Washington, DC</t>
-        </is>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>McLean</t>
+          <t>Hickory</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7176796.48712527</v>
+        <v>6014117.44376238</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.988263079417395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>American Technologies</t>
+          <t>J.W. Logistics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03516</v>
+        <v>0.01422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -779,67 +789,70 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>95000000</v>
+        <v>35000000</v>
       </c>
       <c r="G5" t="n">
-        <v>95000000</v>
+        <v>35000000</v>
       </c>
       <c r="H5" t="n">
-        <v>1352</v>
+        <v>3662</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>American Technologies</t>
+          <t>J.W. Logistics</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>285.6 Million</t>
+          <t>314.3 Million</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>56.9891</v>
+        <v>19.6886</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Logistics &amp; Transportation</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1170</v>
+        <v>347</v>
       </c>
       <c r="O5" t="n">
-        <v>776</v>
+        <v>204</v>
       </c>
       <c r="P5" t="n">
-        <v>1989</v>
+        <v>2011</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Dallas</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Anaheim</t>
+          <t>Frisco</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>6763733.44716411</v>
+        <v>6309866.05028712</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5.546868938431329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OneDigital Health and Benefits</t>
+          <t>LandSouth Construction</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -848,362 +861,389 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.04023</v>
+        <v>0.01422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>85000000</v>
+        <v>35000000</v>
       </c>
       <c r="G6" t="n">
-        <v>85000000</v>
+        <v>35000000</v>
       </c>
       <c r="H6" t="n">
-        <v>3089</v>
+        <v>1100</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>OneDigital Health and Benefits</t>
+          <t>LandSouth Construction</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>313.2 Million</t>
+          <t>288.1 Million</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>16.8926</v>
+        <v>267.2587</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1487</v>
+        <v>108</v>
       </c>
       <c r="O6" t="n">
-        <v>660</v>
+        <v>80</v>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Jacksonville, FL</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>5013656.38200589</v>
+        <v>5567909.2483853</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.2860219947281</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Pro Mach</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.05005</v>
+        <v>0.02552</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60000000</v>
       </c>
       <c r="H7" t="n">
-        <v>3711</v>
+        <v>3910</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Pro Mach</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.3 Billion</t>
+          <t>872.1 Million</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>97.2672</v>
+        <v>65.57559999999999</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Logistics &amp; Transportation</t>
+          <t>Manufacturing</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>486</v>
+        <v>3087</v>
       </c>
       <c r="O7" t="n">
-        <v>378</v>
+        <v>1957</v>
       </c>
       <c r="P7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>1998</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Cincinnati</t>
+        </is>
+      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Hickory</t>
+          <t>Covington</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>6014117.44376238</v>
+        <v>9356818.85053413</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.412435781694644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Aya Healthcare</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.03357</v>
+        <v>0.03895</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3-monthly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>100000000</v>
+        <v>45000000</v>
       </c>
       <c r="G8" t="n">
-        <v>100000000</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3711</v>
+        <v>2649</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Aya Healthcare</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2.3 Billion</t>
+          <t>566 Million</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>97.2672</v>
+        <v>301.2226</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Logistics &amp; Transportation</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>486</v>
+        <v>779</v>
       </c>
       <c r="O8" t="n">
-        <v>378</v>
+        <v>243</v>
       </c>
       <c r="P8" t="n">
-        <v>1999</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>2001</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Hickory</t>
+          <t>San Diego</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>6014117.44376238</v>
+        <v>6975382.31847438</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6.451259292385592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Bankers Healthcare Group</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.03073</v>
+        <v>0.05084</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>75000000</v>
+        <v>30000000</v>
       </c>
       <c r="G9" t="n">
-        <v>75000000</v>
+        <v>30000000</v>
       </c>
       <c r="H9" t="n">
-        <v>3711</v>
+        <v>2187</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Transportation Insight</t>
+          <t>Bankers Healthcare Group</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2.3 Billion</t>
+          <t>220.3 Million</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>97.2672</v>
+        <v>53.5373</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Logistics &amp; Transportation</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>486</v>
+        <v>400</v>
       </c>
       <c r="O9" t="n">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="P9" t="n">
-        <v>1999</v>
-      </c>
-      <c r="Q9" t="inlineStr"/>
+        <v>2001</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Hickory</t>
+          <t>Davie</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>6014117.44376238</v>
+        <v>4632582.4730515</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.475869598547889</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aya Healthcare</t>
+          <t>City Wide Franchise Company</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.03895</v>
+        <v>0.01422</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>45000000</v>
+        <v>35000000</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="H10" t="n">
-        <v>2649</v>
+        <v>876</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Aya Healthcare</t>
+          <t>City Wide Franchise Company</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>566 Million</t>
+          <t>250.5 Million</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>301.2226</v>
+        <v>78.07940000000001</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Business Products &amp; Services</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>779</v>
+        <v>900</v>
       </c>
       <c r="O10" t="n">
-        <v>243</v>
+        <v>500</v>
       </c>
       <c r="P10" t="n">
         <v>2001</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Kansas City, MO-KS</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Lenexa</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>6975382.31847438</v>
+        <v>5281723.63386165</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6.626624644957104</v>
       </c>
     </row>
     <row r="11">
@@ -1278,91 +1318,93 @@
       <c r="S11" t="n">
         <v>8815862.693416459</v>
       </c>
+      <c r="T11" t="n">
+        <v>6.805913622589314</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ReedTMS Logistics</t>
+          <t>Hightowers Petroleum Company</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0494</v>
+        <v>0.0593</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>115000000</v>
+        <v>50000000</v>
       </c>
       <c r="G12" t="n">
-        <v>115000000</v>
+        <v>50000000</v>
       </c>
       <c r="H12" t="n">
-        <v>3693</v>
+        <v>1811</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ReedTMS Logistics</t>
+          <t>Hightowers Petroleum Company</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>205.3 Million</t>
+          <t>434.3 Million</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>127.4854</v>
+        <v>87.47929999999999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Logistics &amp; Transportation</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>300</v>
+        <v>46</v>
       </c>
       <c r="O12" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="P12" t="n">
-        <v>1996</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Tampa</t>
-        </is>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Middletown</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>6213682.98399218</v>
+        <v>7214429.00470683</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6.930555414347976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LandSouth Construction</t>
+          <t>Fortis Construction</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1371,39 +1413,39 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.01422</v>
+        <v>0.00983</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>35000000</v>
+        <v>55000000</v>
       </c>
       <c r="G13" t="n">
-        <v>35000000</v>
+        <v>55000000</v>
       </c>
       <c r="H13" t="n">
-        <v>1100</v>
+        <v>1179</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>LandSouth Construction</t>
+          <t>Fortis Construction</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>288.1 Million</t>
+          <t>1.2 Billion</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>267.2587</v>
+        <v>146.4234</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1411,108 +1453,114 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="O13" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="P13" t="n">
-        <v>1998</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Jacksonville, FL</t>
-        </is>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>5567909.2483853</v>
+        <v>7593809.27043831</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7.242741823146348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hightowers Petroleum Company</t>
+          <t>NewMark Merrill Companies</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.0593</v>
+        <v>0.02976</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>50000000</v>
       </c>
       <c r="G14" t="n">
-        <v>50000000</v>
+        <v>40471615.82925228</v>
       </c>
       <c r="H14" t="n">
-        <v>1811</v>
+        <v>4167</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hightowers Petroleum Company</t>
+          <t>NewMark Merrill Companies</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>434.3 Million</t>
+          <t>242.5 Million</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>87.47929999999999</v>
+        <v>68.3723</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="O14" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="P14" t="n">
-        <v>1985</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
+        <v>1997</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Middletown</t>
+          <t>Woodland Hills</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>7214429.00470683</v>
+        <v>5438329.70867158</v>
+      </c>
+      <c r="T14" t="n">
+        <v>9.193999385560147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pro Mach</t>
+          <t>Uber Technologies</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1521,152 +1569,158 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.02552</v>
+        <v>0.00983</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>60000000</v>
+        <v>55000000</v>
       </c>
       <c r="G15" t="n">
-        <v>60000000</v>
+        <v>55000000</v>
       </c>
       <c r="H15" t="n">
-        <v>3910</v>
+        <v>1438</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Pro Mach</t>
+          <t>Uber Technologies</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>872.1 Million</t>
+          <t>11.3 Billion</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>65.57559999999999</v>
+        <v>464.9123</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Manufacturing</t>
+          <t>Consumer Products &amp; Services</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3087</v>
+        <v>22263</v>
       </c>
       <c r="O15" t="n">
-        <v>1957</v>
+        <v>22263</v>
       </c>
       <c r="P15" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Covington</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>9356818.85053413</v>
+        <v>5628462.17150804</v>
+      </c>
+      <c r="T15" t="n">
+        <v>9.771763285256972</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Russell Cellular</t>
+          <t>Zelis Healthcare</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.04158</v>
+        <v>0.05647</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>110000000</v>
+        <v>75000000</v>
       </c>
       <c r="G16" t="n">
-        <v>55687647.25526104</v>
+        <v>75000000</v>
       </c>
       <c r="H16" t="n">
-        <v>4321</v>
+        <v>2840</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Russell Cellular</t>
+          <t>Zelis Healthcare</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>424.4 Million</t>
+          <t>374.5 Million</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>87.68940000000001</v>
+        <v>82.0056</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Retail</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1868</v>
+        <v>793</v>
       </c>
       <c r="O16" t="n">
-        <v>850</v>
+        <v>576</v>
       </c>
       <c r="P16" t="n">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Springfield, MO</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Battlefield</t>
+          <t>Bedminster</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>5586609.7009097</v>
+        <v>7593010.42668801</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9.877505203520997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Congruity HR</t>
+          <t>CrossCountry Mortgage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1675,157 +1729,167 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.05943</v>
+        <v>0.05855</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>75000000</v>
+        <v>95000000</v>
       </c>
       <c r="G17" t="n">
-        <v>75000000</v>
+        <v>95000000</v>
       </c>
       <c r="H17" t="n">
-        <v>3021</v>
+        <v>2038</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Congruity HR</t>
+          <t>CrossCountry Mortgage</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>210.4 Million</t>
+          <t>333.4 Million</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>82.2957</v>
+        <v>201.9238</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>6195</v>
+        <v>2446</v>
       </c>
       <c r="O17" t="n">
-        <v>3228</v>
+        <v>735</v>
       </c>
       <c r="P17" t="n">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Tulsa, OK</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Kernersville</t>
+          <t>Brecksville</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>5280454.49582954</v>
+        <v>8389175.103783431</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11.3241169512788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monogram Foods</t>
+          <t>NewMark Merrill Companies</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.05855</v>
+        <v>0.05943</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="G18" t="n">
-        <v>95000000</v>
+        <v>65000000</v>
       </c>
       <c r="H18" t="n">
-        <v>2315</v>
+        <v>4167</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Monogram Foods</t>
+          <t>NewMark Merrill Companies</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>660.5 Million</t>
+          <t>242.5 Million</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>53.1889</v>
+        <v>68.3723</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2850</v>
+        <v>80</v>
       </c>
       <c r="O18" t="n">
-        <v>2100</v>
+        <v>77</v>
       </c>
       <c r="P18" t="n">
-        <v>2004</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
+        <v>1997</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Woodland Hills</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>4979123.45710276</v>
+        <v>5438329.70867158</v>
+      </c>
+      <c r="T18" t="n">
+        <v>11.95219920122819</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MediaAlpha</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.03889</v>
+        <v>0.03073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1833,221 +1897,222 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>85000000</v>
+        <v>75000000</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>75000000</v>
       </c>
       <c r="H19" t="n">
-        <v>4652</v>
+        <v>3711</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>MediaAlpha</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>297.1 Million</t>
+          <t>2.3 Billion</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>181.6211</v>
+        <v>97.2672</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Logistics &amp; Transportation</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="O19" t="n">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="P19" t="n">
-        <v>2010</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
-        </is>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Hickory</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>3134493.95436964</v>
+        <v>6014117.44376238</v>
+      </c>
+      <c r="T19" t="n">
+        <v>12.47065769854349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MediaAlpha</t>
+          <t>Park Place Technologies</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.04023</v>
+        <v>0.0477</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80000000</v>
+        <v>85000000</v>
       </c>
       <c r="G20" t="n">
-        <v>80000000</v>
+        <v>6720850.390951049</v>
       </c>
       <c r="H20" t="n">
-        <v>4652</v>
+        <v>3258</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>MediaAlpha</t>
+          <t>Park Place Technologies</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>297.1 Million</t>
+          <t>218.4 Million</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>181.6211</v>
+        <v>149.3505</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>IT Management</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>65</v>
+        <v>1200</v>
       </c>
       <c r="O20" t="n">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="P20" t="n">
-        <v>2010</v>
+        <v>1991</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Mayfield Heights</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>3134493.95436964</v>
+        <v>6713103.77826075</v>
+      </c>
+      <c r="T20" t="n">
+        <v>12.66180336363309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Noble.com</t>
+          <t>Freddy's Frozen Custard</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.03446</v>
+        <v>0.03161</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>105000000</v>
+        <v>80000000</v>
       </c>
       <c r="G21" t="n">
-        <v>105000000</v>
+        <v>59525690.535849</v>
       </c>
       <c r="H21" t="n">
-        <v>2421</v>
+        <v>2295</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Noble.com</t>
+          <t>Freddy's Frozen Custard</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>368.6 Million</t>
+          <t>474.7 Million</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>228.4546</v>
+        <v>77.7525</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Government Services</t>
+          <t>Food &amp; Beverage</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>224</v>
+        <v>13751</v>
       </c>
       <c r="O21" t="n">
-        <v>104</v>
+        <v>7257</v>
       </c>
       <c r="P21" t="n">
-        <v>2003</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Boston</t>
-        </is>
-      </c>
+        <v>2002</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Wichita</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>4623213.29433952</v>
+        <v>5790482.13091003</v>
+      </c>
+      <c r="T21" t="n">
+        <v>13.81577530011775</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hollister Construction Services</t>
+          <t>American Technologies</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2056,39 +2121,39 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.05639</v>
+        <v>0.03516</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3-monthly</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>90000000</v>
+        <v>95000000</v>
       </c>
       <c r="G22" t="n">
-        <v>90000000</v>
+        <v>95000000</v>
       </c>
       <c r="H22" t="n">
-        <v>1288</v>
+        <v>1352</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Hollister Construction Services</t>
+          <t>American Technologies</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>292.1 Million</t>
+          <t>285.6 Million</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>82.6052</v>
+        <v>56.9891</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2096,230 +2161,239 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>150</v>
+        <v>1170</v>
       </c>
       <c r="O22" t="n">
-        <v>94</v>
+        <v>776</v>
       </c>
       <c r="P22" t="n">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Parsippany</t>
+          <t>Anaheim</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>6080428.26923633</v>
+        <v>6763733.44716411</v>
+      </c>
+      <c r="T22" t="n">
+        <v>14.04549731921081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Uber Technologies</t>
+          <t>Medical Solutions</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.00983</v>
+        <v>0.03318</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>3-monthly</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>55000000</v>
+        <v>100000000</v>
       </c>
       <c r="G23" t="n">
-        <v>55000000</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1438</v>
+        <v>2773</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Uber Technologies</t>
+          <t>Medical Solutions</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11.3 Billion</t>
+          <t>480.6 Million</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>464.9123</v>
+        <v>121.4829</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Consumer Products &amp; Services</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>22263</v>
+        <v>514</v>
       </c>
       <c r="O23" t="n">
-        <v>22263</v>
+        <v>254</v>
       </c>
       <c r="P23" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Omaha-Council Bluffs, NE-IA</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>5628462.17150804</v>
+        <v>7060255.72723355</v>
+      </c>
+      <c r="T23" t="n">
+        <v>14.16379290827521</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Uber Technologies</t>
+          <t>Congruity HR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.03446</v>
+        <v>0.05943</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>105000000</v>
+        <v>75000000</v>
       </c>
       <c r="G24" t="n">
-        <v>10723942.19394907</v>
+        <v>75000000</v>
       </c>
       <c r="H24" t="n">
-        <v>1438</v>
+        <v>3021</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Uber Technologies</t>
+          <t>Congruity HR</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.3 Billion</t>
+          <t>210.4 Million</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>464.9123</v>
+        <v>82.2957</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Consumer Products &amp; Services</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>22263</v>
+        <v>6195</v>
       </c>
       <c r="O24" t="n">
-        <v>22263</v>
+        <v>3228</v>
       </c>
       <c r="P24" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Tulsa, OK</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Kernersville</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>5628462.17150804</v>
+        <v>5280454.49582954</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14.2033228501892</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ExactCare Pharmacy</t>
+          <t>Zelis Healthcare</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.04216</v>
+        <v>0.04158</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100000000</v>
+        <v>110000000</v>
       </c>
       <c r="G25" t="n">
-        <v>100000000</v>
+        <v>54159492.92757212</v>
       </c>
       <c r="H25" t="n">
-        <v>2857</v>
+        <v>2840</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ExactCare Pharmacy</t>
+          <t>Zelis Healthcare</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>203.4 Million</t>
+          <t>374.5 Million</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>70.7979</v>
+        <v>82.0056</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2327,189 +2401,198 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>438</v>
+        <v>793</v>
       </c>
       <c r="O25" t="n">
-        <v>253</v>
+        <v>576</v>
       </c>
       <c r="P25" t="n">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Valley View</t>
+          <t>Bedminster</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>6158772.0038286</v>
+        <v>7593010.42668801</v>
+      </c>
+      <c r="T25" t="n">
+        <v>14.48700763183079</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CrossCountry Mortgage</t>
+          <t>Hollister Construction Services</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.05855</v>
+        <v>0.05639</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>3-monthly</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>95000000</v>
+        <v>90000000</v>
       </c>
       <c r="G26" t="n">
-        <v>95000000</v>
+        <v>90000000</v>
       </c>
       <c r="H26" t="n">
-        <v>2038</v>
+        <v>1288</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>CrossCountry Mortgage</t>
+          <t>Hollister Construction Services</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>333.4 Million</t>
+          <t>292.1 Million</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>201.9238</v>
+        <v>82.6052</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2446</v>
+        <v>150</v>
       </c>
       <c r="O26" t="n">
-        <v>735</v>
+        <v>94</v>
       </c>
       <c r="P26" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Brecksville</t>
+          <t>Parsippany</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>8389175.103783431</v>
+        <v>6080428.26923633</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14.80158896953874</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>City Wide Franchise Company</t>
+          <t>Convergint Technologies</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.03868</v>
+        <v>0.03357</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3-monthly</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>85000000</v>
+        <v>100000000</v>
       </c>
       <c r="G27" t="n">
-        <v>85000000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>876</v>
+        <v>4392</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>City Wide Franchise Company</t>
+          <t>Convergint Technologies</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>250.5 Million</t>
+          <t>990.6 Million</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>78.07940000000001</v>
+        <v>11.1141</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Business Products &amp; Services</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>900</v>
+        <v>4112</v>
       </c>
       <c r="O27" t="n">
-        <v>500</v>
+        <v>2136</v>
       </c>
       <c r="P27" t="n">
         <v>2001</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Kansas City, MO-KS</t>
+          <t>Chicago</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lenexa</t>
+          <t>Schaumberg</t>
         </is>
       </c>
       <c r="S27" t="n">
-        <v>5281723.63386165</v>
+        <v>6309732.61226947</v>
+      </c>
+      <c r="T27" t="n">
+        <v>15.8485321240946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>City Wide Franchise Company</t>
+          <t>KLDiscovery</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2518,7 +2601,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.01422</v>
+        <v>0.01073</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2526,153 +2609,159 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>35000000</v>
+        <v>115000000</v>
       </c>
       <c r="G28" t="n">
-        <v>35000000</v>
+        <v>115000000</v>
       </c>
       <c r="H28" t="n">
-        <v>876</v>
+        <v>3214</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>City Wide Franchise Company</t>
+          <t>KLDiscovery</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>250.5 Million</t>
+          <t>296.3 Million</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>78.07940000000001</v>
+        <v>222.2068</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Business Products &amp; Services</t>
+          <t>IT Management</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>900</v>
+        <v>1174</v>
       </c>
       <c r="O28" t="n">
-        <v>500</v>
+        <v>287</v>
       </c>
       <c r="P28" t="n">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Kansas City, MO-KS</t>
+          <t>Washington, DC</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lenexa</t>
+          <t>McLean</t>
         </is>
       </c>
       <c r="S28" t="n">
-        <v>5281723.63386165</v>
+        <v>7176796.48712527</v>
+      </c>
+      <c r="T28" t="n">
+        <v>16.02386248604136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J.W. Logistics</t>
+          <t>City Wide Franchise Company</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01422</v>
+        <v>0.03868</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>3-monthly</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>35000000</v>
+        <v>85000000</v>
       </c>
       <c r="G29" t="n">
-        <v>35000000</v>
+        <v>85000000</v>
       </c>
       <c r="H29" t="n">
-        <v>3662</v>
+        <v>876</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>J.W. Logistics</t>
+          <t>City Wide Franchise Company</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>KS</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>314.3 Million</t>
+          <t>250.5 Million</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>19.6886</v>
+        <v>78.07940000000001</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Logistics &amp; Transportation</t>
+          <t>Business Products &amp; Services</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>347</v>
+        <v>900</v>
       </c>
       <c r="O29" t="n">
-        <v>204</v>
+        <v>500</v>
       </c>
       <c r="P29" t="n">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Kansas City, MO-KS</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Frisco</t>
+          <t>Lenexa</t>
         </is>
       </c>
       <c r="S29" t="n">
-        <v>6309866.05028712</v>
+        <v>5281723.63386165</v>
+      </c>
+      <c r="T29" t="n">
+        <v>16.09323128061011</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Convergint Technologies</t>
+          <t>ExactCare Pharmacy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.03357</v>
+        <v>0.04216</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2683,105 +2772,108 @@
         <v>100000000</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="H30" t="n">
-        <v>4392</v>
+        <v>2857</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Convergint Technologies</t>
+          <t>ExactCare Pharmacy</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>990.6 Million</t>
+          <t>203.4 Million</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>11.1141</v>
+        <v>70.7979</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4112</v>
+        <v>438</v>
       </c>
       <c r="O30" t="n">
-        <v>2136</v>
+        <v>253</v>
       </c>
       <c r="P30" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Cleveland</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Schaumberg</t>
+          <t>Valley View</t>
         </is>
       </c>
       <c r="S30" t="n">
-        <v>6309732.61226947</v>
+        <v>6158772.0038286</v>
+      </c>
+      <c r="T30" t="n">
+        <v>16.23700308078218</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zelis Healthcare</t>
+          <t>Medical Solutions</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.04158</v>
+        <v>0.03424</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>110000000</v>
+        <v>115000000</v>
       </c>
       <c r="G31" t="n">
-        <v>54159492.92757212</v>
+        <v>115000000</v>
       </c>
       <c r="H31" t="n">
-        <v>2840</v>
+        <v>2773</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Zelis Healthcare</t>
+          <t>Medical Solutions</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>374.5 Million</t>
+          <t>480.6 Million</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>82.0056</v>
+        <v>121.4829</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2789,275 +2881,283 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>793</v>
+        <v>514</v>
       </c>
       <c r="O31" t="n">
-        <v>576</v>
+        <v>254</v>
       </c>
       <c r="P31" t="n">
         <v>2001</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Omaha-Council Bluffs, NE-IA</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Bedminster</t>
+          <t>Omaha</t>
         </is>
       </c>
       <c r="S31" t="n">
-        <v>7593010.42668801</v>
+        <v>7060255.72723355</v>
+      </c>
+      <c r="T31" t="n">
+        <v>16.28836184451649</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NewMark Merrill Companies</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.02976</v>
+        <v>0.03357</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>3-monthly</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="G32" t="n">
-        <v>40471615.82925228</v>
+        <v>100000000</v>
       </c>
       <c r="H32" t="n">
-        <v>4167</v>
+        <v>3711</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>NewMark Merrill Companies</t>
+          <t>Transportation Insight</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>242.5 Million</t>
+          <t>2.3 Billion</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>68.3723</v>
+        <v>97.2672</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Logistics &amp; Transportation</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="O32" t="n">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="P32" t="n">
-        <v>1997</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Los Angeles</t>
-        </is>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Woodland Hills</t>
+          <t>Hickory</t>
         </is>
       </c>
       <c r="S32" t="n">
-        <v>5438329.70867158</v>
+        <v>6014117.44376238</v>
+      </c>
+      <c r="T32" t="n">
+        <v>16.62754359805798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NewMark Merrill Companies</t>
+          <t>OneDigital Health and Benefits</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Long Term Loan</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.05943</v>
+        <v>0.04023</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>yearly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>65000000</v>
+        <v>85000000</v>
       </c>
       <c r="G33" t="n">
-        <v>65000000</v>
+        <v>85000000</v>
       </c>
       <c r="H33" t="n">
-        <v>4167</v>
+        <v>3089</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>NewMark Merrill Companies</t>
+          <t>OneDigital Health and Benefits</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>242.5 Million</t>
+          <t>313.2 Million</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>68.3723</v>
+        <v>16.8926</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>80</v>
+        <v>1487</v>
       </c>
       <c r="O33" t="n">
-        <v>77</v>
+        <v>660</v>
       </c>
       <c r="P33" t="n">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Woodland Hills</t>
+          <t>Atlanta</t>
         </is>
       </c>
       <c r="S33" t="n">
-        <v>5438329.70867158</v>
+        <v>5013656.38200589</v>
+      </c>
+      <c r="T33" t="n">
+        <v>16.95369477355222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Medical Solutions</t>
+          <t>ReedTMS Logistics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.03318</v>
+        <v>0.0494</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3-monthly</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100000000</v>
+        <v>115000000</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115000000</v>
       </c>
       <c r="H34" t="n">
-        <v>2773</v>
+        <v>3693</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Medical Solutions</t>
+          <t>ReedTMS Logistics</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>480.6 Million</t>
+          <t>205.3 Million</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>121.4829</v>
+        <v>127.4854</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Logistics &amp; Transportation</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>514</v>
+        <v>300</v>
       </c>
       <c r="O34" t="n">
-        <v>254</v>
+        <v>85</v>
       </c>
       <c r="P34" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Omaha-Council Bluffs, NE-IA</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Tampa</t>
         </is>
       </c>
       <c r="S34" t="n">
-        <v>7060255.72723355</v>
+        <v>6213682.98399218</v>
+      </c>
+      <c r="T34" t="n">
+        <v>18.50754219297402</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Medical Solutions</t>
+          <t>Uber Technologies</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Short Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.03424</v>
+        <v>0.03446</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3065,76 +3165,79 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>115000000</v>
+        <v>105000000</v>
       </c>
       <c r="G35" t="n">
-        <v>115000000</v>
+        <v>10723942.19394907</v>
       </c>
       <c r="H35" t="n">
-        <v>2773</v>
+        <v>1438</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Medical Solutions</t>
+          <t>Uber Technologies</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>480.6 Million</t>
+          <t>11.3 Billion</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>121.4829</v>
+        <v>464.9123</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Consumer Products &amp; Services</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>514</v>
+        <v>22263</v>
       </c>
       <c r="O35" t="n">
-        <v>254</v>
+        <v>22263</v>
       </c>
       <c r="P35" t="n">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Omaha-Council Bluffs, NE-IA</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>San Francisco</t>
         </is>
       </c>
       <c r="S35" t="n">
-        <v>7060255.72723355</v>
+        <v>5628462.17150804</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18.6551844536724</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Park Place Technologies</t>
+          <t>Monogram Foods</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0477</v>
+        <v>0.05855</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3142,358 +3245,377 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>85000000</v>
+        <v>95000000</v>
       </c>
       <c r="G36" t="n">
-        <v>6720850.390951049</v>
+        <v>95000000</v>
       </c>
       <c r="H36" t="n">
-        <v>3258</v>
+        <v>2315</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Park Place Technologies</t>
+          <t>Monogram Foods</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>218.4 Million</t>
+          <t>660.5 Million</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>149.3505</v>
+        <v>53.1889</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>IT Management</t>
+          <t>Food &amp; Beverage</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1200</v>
+        <v>2850</v>
       </c>
       <c r="O36" t="n">
-        <v>363</v>
+        <v>2100</v>
       </c>
       <c r="P36" t="n">
-        <v>1991</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Cleveland</t>
-        </is>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Mayfield Heights</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="S36" t="n">
-        <v>6713103.77826075</v>
+        <v>4979123.45710276</v>
+      </c>
+      <c r="T36" t="n">
+        <v>19.07966348263201</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Park Place Technologies</t>
+          <t>Russell Cellular</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.00959</v>
+        <v>0.04158</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>30000000</v>
+        <v>110000000</v>
       </c>
       <c r="G37" t="n">
-        <v>30000000</v>
+        <v>55687647.25526104</v>
       </c>
       <c r="H37" t="n">
-        <v>3258</v>
+        <v>4321</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Park Place Technologies</t>
+          <t>Russell Cellular</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>218.4 Million</t>
+          <t>424.4 Million</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>149.3505</v>
+        <v>87.68940000000001</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>IT Management</t>
+          <t>Retail</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>1200</v>
+        <v>1868</v>
       </c>
       <c r="O37" t="n">
-        <v>363</v>
+        <v>850</v>
       </c>
       <c r="P37" t="n">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Springfield, MO</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Mayfield Heights</t>
+          <t>Battlefield</t>
         </is>
       </c>
       <c r="S37" t="n">
-        <v>6713103.77826075</v>
+        <v>5586609.7009097</v>
+      </c>
+      <c r="T37" t="n">
+        <v>19.68993824324045</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Freddy's Frozen Custard</t>
+          <t>Noble.com</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Revolvers</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.03161</v>
+        <v>0.03446</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>80000000</v>
+        <v>105000000</v>
       </c>
       <c r="G38" t="n">
-        <v>59525690.535849</v>
+        <v>105000000</v>
       </c>
       <c r="H38" t="n">
-        <v>2295</v>
+        <v>2421</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Freddy's Frozen Custard</t>
+          <t>Noble.com</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>KS</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>474.7 Million</t>
+          <t>368.6 Million</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>77.7525</v>
+        <v>228.4546</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Food &amp; Beverage</t>
+          <t>Government Services</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>13751</v>
+        <v>224</v>
       </c>
       <c r="O38" t="n">
-        <v>7257</v>
+        <v>104</v>
       </c>
       <c r="P38" t="n">
-        <v>2002</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>2003</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Wichita</t>
+          <t>Boston</t>
         </is>
       </c>
       <c r="S38" t="n">
-        <v>5790482.13091003</v>
+        <v>4623213.29433952</v>
+      </c>
+      <c r="T38" t="n">
+        <v>22.71147648077536</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fortis Construction</t>
+          <t>MediaAlpha</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Long Term Loan</t>
+          <t>Short Term Loan</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.00983</v>
+        <v>0.04023</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>monthly</t>
+          <t>daily</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>55000000</v>
+        <v>80000000</v>
       </c>
       <c r="G39" t="n">
-        <v>55000000</v>
+        <v>80000000</v>
       </c>
       <c r="H39" t="n">
-        <v>1179</v>
+        <v>4652</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Fortis Construction</t>
+          <t>MediaAlpha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1.2 Billion</t>
+          <t>297.1 Million</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>146.4234</v>
+        <v>181.6211</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="O39" t="n">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="P39" t="n">
-        <v>2003</v>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+        <v>2010</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="S39" t="n">
-        <v>7593809.27043831</v>
+        <v>3134493.95436964</v>
+      </c>
+      <c r="T39" t="n">
+        <v>25.52246109407103</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Zelis Healthcare</t>
+          <t>MediaAlpha</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Revolvers</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.05647</v>
+        <v>0.03889</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>daily</t>
+          <t>yearly</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>75000000</v>
+        <v>85000000</v>
       </c>
       <c r="G40" t="n">
-        <v>75000000</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2840</v>
+        <v>4652</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Zelis Healthcare</t>
+          <t>MediaAlpha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>374.5 Million</t>
+          <t>297.1 Million</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>82.0056</v>
+        <v>181.6211</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>793</v>
+        <v>65</v>
       </c>
       <c r="O40" t="n">
-        <v>576</v>
+        <v>26</v>
       </c>
       <c r="P40" t="n">
-        <v>2001</v>
+        <v>2010</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Bedminster</t>
+          <t>Los Angeles</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>7593010.42668801</v>
+        <v>3134493.95436964</v>
+      </c>
+      <c r="T40" t="n">
+        <v>27.11761491245047</v>
       </c>
     </row>
   </sheetData>
